--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gdf2-Eng.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gdf2-Eng.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>114.155417</v>
+        <v>201.098592</v>
       </c>
       <c r="N2">
-        <v>342.466251</v>
+        <v>603.295776</v>
       </c>
       <c r="O2">
-        <v>0.6835107367845005</v>
+        <v>0.7918622805845071</v>
       </c>
       <c r="P2">
-        <v>0.6835107367845005</v>
+        <v>0.791862280584507</v>
       </c>
       <c r="Q2">
-        <v>141.573150899643</v>
+        <v>249.398250727968</v>
       </c>
       <c r="R2">
-        <v>1274.158358096787</v>
+        <v>2244.584256551712</v>
       </c>
       <c r="S2">
-        <v>0.6835107367845005</v>
+        <v>0.7918622805845071</v>
       </c>
       <c r="T2">
-        <v>0.6835107367845005</v>
+        <v>0.791862280584507</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>107.773605</v>
       </c>
       <c r="O3">
-        <v>0.2150997826628812</v>
+        <v>0.1414593902976603</v>
       </c>
       <c r="P3">
-        <v>0.2150997826628812</v>
+        <v>0.1414593902976603</v>
       </c>
       <c r="Q3">
         <v>44.552853891765</v>
@@ -632,10 +632,10 @@
         <v>400.975685025885</v>
       </c>
       <c r="S3">
-        <v>0.2150997826628812</v>
+        <v>0.1414593902976603</v>
       </c>
       <c r="T3">
-        <v>0.2150997826628812</v>
+        <v>0.1414593902976603</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>50.80019</v>
       </c>
       <c r="O4">
-        <v>0.1013894805526183</v>
+        <v>0.0666783291178327</v>
       </c>
       <c r="P4">
-        <v>0.1013894805526183</v>
+        <v>0.06667832911783268</v>
       </c>
       <c r="Q4">
         <v>21.00044294467</v>
@@ -694,10 +694,10 @@
         <v>189.00398650203</v>
       </c>
       <c r="S4">
-        <v>0.1013894805526183</v>
+        <v>0.0666783291178327</v>
       </c>
       <c r="T4">
-        <v>0.1013894805526183</v>
+        <v>0.06667832911783268</v>
       </c>
     </row>
   </sheetData>
